--- a/build/resources/test/datadriven/Data.xlsx
+++ b/build/resources/test/datadriven/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PracticaPruebasAutomatizadasDataDrivenExcel\src\test\resources\datadriven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PracticeDataDrivenExcelFrontEndTesting\src\test\resources\datadriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE70EC5D-E9A6-4D7B-9E8A-68FFEC30BF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE434C2-A124-4D47-A5F1-F8E82E1E99A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7EB4C273-A106-4B16-BC89-BCD7A4A8301F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t xml:space="preserve"> user          </t>
   </si>
@@ -62,13 +62,25 @@
     <t xml:space="preserve"> secret_sauce </t>
   </si>
   <si>
-    <t xml:space="preserve"> Josue     </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Presley  </t>
   </si>
   <si>
     <t xml:space="preserve"> Thank you for your order! </t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Marley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Josue  </t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Smith</t>
   </si>
 </sst>
 </file>
@@ -430,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B376E5E-0758-4231-B190-0C923ADFEF3A}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -482,16 +494,62 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="2">
         <v>5105</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5106</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5107</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
